--- a/service/GateService/config/xlsx/公共参数.xlsx
+++ b/service/GateService/config/xlsx/公共参数.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workplace\mine\CrystalNet\CrystalNet\service\TestService\config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F942FA15-B217-4634-8880-0C676044E097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F64BC51B-5C9F-43F4-97EF-6D734E9E114A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="公共参数|Common" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>C|S</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Brief</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -136,6 +132,90 @@
   </si>
   <si>
     <t>USER_LOGIN_KEY_CHAR_COUNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_LOGIN_EXPIRE_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Int64Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StringValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录超时时间(秒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_HEARTBEAT_EXPIRE_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心跳超时时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_LOGIN_KEY_CHAR_COUNT_MAX_LEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密钥字符最大长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAME_MAX_LEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字最大字符数(utf8字符数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大在借图书数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BORROW_COUNT_LIMIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ORDER_SAVE_DAYS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已还订单最多保存时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OVERDUE_DAYS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逾期时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENT_LIMIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容最大长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRST_DAY_OF_WEEK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一周开始, 若是过往是从0(星期天)开始, 国内是从1(星期一)开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,23 +548,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -492,8 +572,14 @@
       <c r="C1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -501,106 +587,253 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>1000</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>22</v>
       </c>
       <c r="C9">
         <v>1000</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9">
+        <v>1000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="C10">
+        <v>86000</v>
+      </c>
+      <c r="D10">
+        <v>86000</v>
+      </c>
+      <c r="F10" t="s">
         <v>24</v>
       </c>
-      <c r="C10">
-        <v>86400</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14">
+        <v>20</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16">
+        <v>100</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>365</v>
+      </c>
+      <c r="D17">
+        <v>365</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>1024</v>
+      </c>
+      <c r="D19">
+        <v>1024</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
